--- a/MIBGAS.xlsx
+++ b/MIBGAS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GWDES" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GWDES" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -5567,7 +5567,7 @@
         <v>45927</v>
       </c>
       <c r="B637" t="n">
-        <v>31.6</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="638">
@@ -5575,7 +5575,7 @@
         <v>45928</v>
       </c>
       <c r="B638" t="n">
-        <v>31.6</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="639">
@@ -5583,7 +5583,7 @@
         <v>45929</v>
       </c>
       <c r="B639" t="n">
-        <v>31.75</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="640">
@@ -5591,7 +5591,7 @@
         <v>45930</v>
       </c>
       <c r="B640" t="n">
-        <v>31.75</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="641">
@@ -5599,7 +5599,7 @@
         <v>45931</v>
       </c>
       <c r="B641" t="n">
-        <v>31.75</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="642">
@@ -5607,7 +5607,7 @@
         <v>45932</v>
       </c>
       <c r="B642" t="n">
-        <v>31.75</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="643">
@@ -5615,7 +5615,7 @@
         <v>45933</v>
       </c>
       <c r="B643" t="n">
-        <v>31.75</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="644">
@@ -5623,7 +5623,7 @@
         <v>45934</v>
       </c>
       <c r="B644" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="645">
@@ -5631,7 +5631,7 @@
         <v>45935</v>
       </c>
       <c r="B645" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="646">
@@ -5639,7 +5639,7 @@
         <v>45936</v>
       </c>
       <c r="B646" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="647">
@@ -5647,7 +5647,7 @@
         <v>45937</v>
       </c>
       <c r="B647" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="648">
@@ -5655,7 +5655,7 @@
         <v>45938</v>
       </c>
       <c r="B648" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="649">
@@ -5663,7 +5663,7 @@
         <v>45939</v>
       </c>
       <c r="B649" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="650">
@@ -5671,7 +5671,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="651">
@@ -5679,7 +5679,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="652">
@@ -5687,7 +5687,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="653">
@@ -5695,7 +5695,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="654">
@@ -5703,7 +5703,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="655">
@@ -5711,7 +5711,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="656">
@@ -5719,7 +5719,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="657">
@@ -5727,7 +5727,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="658">
@@ -5735,7 +5735,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="659">
@@ -5743,7 +5743,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="660">
@@ -5751,7 +5751,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="661">
@@ -5759,7 +5759,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="662">
@@ -5767,7 +5767,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="663">
@@ -5775,7 +5775,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="664">
@@ -5783,7 +5783,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="665">
@@ -5791,7 +5791,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="666">
@@ -5799,7 +5799,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="667">
@@ -5807,7 +5807,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="668">
@@ -5815,7 +5815,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="669">
@@ -5823,7 +5823,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="670">
@@ -5831,7 +5831,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="671">
@@ -5839,7 +5839,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.73</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="672">
@@ -5847,7 +5847,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="673">
@@ -5855,7 +5855,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="674">
@@ -5863,7 +5863,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="675">
@@ -5871,7 +5871,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="676">
@@ -5879,7 +5879,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="677">
@@ -5887,7 +5887,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="678">
@@ -5895,7 +5895,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="679">
@@ -5903,7 +5903,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="680">
@@ -5911,7 +5911,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="681">
@@ -5919,7 +5919,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="682">
@@ -5927,7 +5927,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="683">
@@ -5935,7 +5935,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="684">
@@ -5943,7 +5943,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="685">
@@ -5951,7 +5951,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="686">
@@ -5959,7 +5959,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="687">
@@ -5967,7 +5967,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="688">
@@ -5975,7 +5975,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="689">
@@ -5983,7 +5983,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="690">
@@ -5991,7 +5991,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="691">
@@ -5999,7 +5999,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="692">
@@ -6007,7 +6007,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="693">
@@ -6015,7 +6015,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="694">
@@ -6023,7 +6023,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="695">
@@ -6031,7 +6031,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="696">
@@ -6039,7 +6039,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="697">
@@ -6047,7 +6047,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="698">
@@ -6055,7 +6055,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="699">
@@ -6063,7 +6063,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="700">
@@ -6071,7 +6071,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="701">
@@ -6079,7 +6079,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>32.05</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="702">
@@ -6087,7 +6087,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="703">
@@ -6095,7 +6095,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="704">
@@ -6103,7 +6103,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="705">
@@ -6111,7 +6111,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="706">
@@ -6119,7 +6119,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="707">
@@ -6127,7 +6127,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="708">
@@ -6135,7 +6135,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="709">
@@ -6143,7 +6143,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="710">
@@ -6151,7 +6151,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="711">
@@ -6159,7 +6159,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="712">
@@ -6167,7 +6167,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="713">
@@ -6175,7 +6175,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="714">
@@ -6183,7 +6183,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="715">
@@ -6191,7 +6191,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="716">
@@ -6199,7 +6199,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="717">
@@ -6207,7 +6207,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="718">
@@ -6215,7 +6215,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="719">
@@ -6223,7 +6223,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="720">
@@ -6231,7 +6231,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="721">
@@ -6239,7 +6239,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="722">
@@ -6247,7 +6247,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="723">
@@ -6255,7 +6255,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="724">
@@ -6263,7 +6263,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="725">
@@ -6271,7 +6271,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="726">
@@ -6279,7 +6279,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="727">
@@ -6287,7 +6287,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="728">
@@ -6295,7 +6295,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="729">
@@ -6303,7 +6303,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="730">
@@ -6311,7 +6311,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="731">
@@ -6319,7 +6319,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="732">
@@ -6327,7 +6327,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>32.16</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="733">
@@ -6335,7 +6335,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="734">
@@ -6343,7 +6343,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="735">
@@ -6351,7 +6351,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="736">
@@ -6359,7 +6359,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="737">
@@ -6367,7 +6367,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="738">
@@ -6375,7 +6375,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="739">
@@ -6383,7 +6383,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="740">
@@ -6391,7 +6391,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="741">
@@ -6399,7 +6399,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="742">
@@ -6407,7 +6407,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="743">
@@ -6415,7 +6415,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="744">
@@ -6423,7 +6423,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="745">
@@ -6431,7 +6431,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="746">
@@ -6439,7 +6439,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="747">
@@ -6447,7 +6447,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="748">
@@ -6455,7 +6455,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="749">
@@ -6463,7 +6463,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="750">
@@ -6471,7 +6471,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="751">
@@ -6479,7 +6479,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="752">
@@ -6487,7 +6487,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="753">
@@ -6495,7 +6495,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="754">
@@ -6503,7 +6503,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="755">
@@ -6511,7 +6511,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="756">
@@ -6519,7 +6519,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="757">
@@ -6527,7 +6527,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="758">
@@ -6535,7 +6535,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="759">
@@ -6543,7 +6543,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="760">
@@ -6551,7 +6551,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="761">
@@ -6559,7 +6559,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="762">
@@ -6567,7 +6567,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="763">
@@ -6575,7 +6575,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>32.61</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="764">
@@ -6583,7 +6583,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="765">
@@ -6591,7 +6591,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="766">
@@ -6599,7 +6599,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="767">
@@ -6607,7 +6607,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="768">
@@ -6615,7 +6615,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="769">
@@ -6623,7 +6623,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="770">
@@ -6631,7 +6631,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="771">
@@ -6639,7 +6639,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="772">
@@ -6647,7 +6647,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="773">
@@ -6655,7 +6655,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="774">
@@ -6663,7 +6663,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="775">
@@ -6671,7 +6671,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="776">
@@ -6679,7 +6679,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="777">
@@ -6687,7 +6687,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="778">
@@ -6695,7 +6695,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="779">
@@ -6703,7 +6703,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="780">
@@ -6711,7 +6711,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="781">
@@ -6719,7 +6719,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="782">
@@ -6727,7 +6727,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="783">
@@ -6735,7 +6735,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="784">
@@ -6743,7 +6743,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="785">
@@ -6751,7 +6751,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="786">
@@ -6759,7 +6759,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="787">
@@ -6767,7 +6767,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="788">
@@ -6775,7 +6775,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="789">
@@ -6783,7 +6783,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="790">
@@ -6791,7 +6791,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="791">
@@ -6799,7 +6799,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>32.55</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="792">
@@ -6807,7 +6807,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="793">
@@ -6815,7 +6815,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="794">
@@ -6823,7 +6823,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="795">
@@ -6831,7 +6831,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="796">
@@ -6839,7 +6839,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="797">
@@ -6847,7 +6847,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="798">
@@ -6855,7 +6855,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="799">
@@ -6863,7 +6863,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="800">
@@ -6871,7 +6871,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="801">
@@ -6879,7 +6879,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="802">
@@ -6887,7 +6887,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="803">
@@ -6895,7 +6895,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="804">
@@ -6903,7 +6903,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="805">
@@ -6911,7 +6911,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="806">
@@ -6919,7 +6919,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="807">
@@ -6927,7 +6927,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="808">
@@ -6935,7 +6935,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="809">
@@ -6943,7 +6943,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="810">
@@ -6951,7 +6951,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="811">
@@ -6959,7 +6959,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="812">
@@ -6967,7 +6967,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="813">
@@ -6975,7 +6975,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="814">
@@ -6983,7 +6983,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="815">
@@ -6991,7 +6991,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="816">
@@ -6999,7 +6999,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="817">
@@ -7007,7 +7007,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="818">
@@ -7015,7 +7015,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="819">
@@ -7023,7 +7023,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="820">
@@ -7031,7 +7031,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="821">
@@ -7039,7 +7039,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="822">
@@ -7047,7 +7047,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>32.01</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="823">
@@ -7055,7 +7055,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="824">
@@ -7063,7 +7063,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="825">
@@ -7071,7 +7071,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="826">
@@ -7079,7 +7079,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="827">
@@ -7087,7 +7087,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="828">
@@ -7095,7 +7095,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="829">
@@ -7103,7 +7103,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="830">
@@ -7111,7 +7111,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="831">
@@ -7119,7 +7119,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="832">
@@ -7127,7 +7127,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="833">
@@ -7135,7 +7135,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="834">
@@ -7143,7 +7143,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="835">
@@ -7151,7 +7151,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="836">
@@ -7159,7 +7159,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="837">
@@ -7167,7 +7167,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="838">
@@ -7175,7 +7175,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="839">
@@ -7183,7 +7183,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="840">
@@ -7191,7 +7191,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="841">
@@ -7199,7 +7199,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="842">
@@ -7207,7 +7207,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="843">
@@ -7215,7 +7215,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="844">
@@ -7223,7 +7223,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="845">
@@ -7231,7 +7231,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="846">
@@ -7239,7 +7239,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="847">
@@ -7247,7 +7247,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="848">
@@ -7255,7 +7255,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="849">
@@ -7263,7 +7263,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="850">
@@ -7271,7 +7271,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="851">
@@ -7279,7 +7279,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="852">
@@ -7287,7 +7287,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="853">
@@ -7295,7 +7295,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="854">
@@ -7303,7 +7303,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="855">
@@ -7311,7 +7311,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="856">
@@ -7319,7 +7319,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="857">
@@ -7327,7 +7327,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="858">
@@ -7335,7 +7335,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="859">
@@ -7343,7 +7343,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="860">
@@ -7351,7 +7351,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="861">
@@ -7359,7 +7359,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="862">
@@ -7367,7 +7367,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="863">
@@ -7375,7 +7375,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="864">
@@ -7383,7 +7383,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="865">
@@ -7391,7 +7391,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="866">
@@ -7399,7 +7399,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="867">
@@ -7407,7 +7407,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="868">
@@ -7415,7 +7415,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="869">
@@ -7423,7 +7423,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="870">
@@ -7431,7 +7431,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="871">
@@ -7439,7 +7439,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="872">
@@ -7447,7 +7447,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="873">
@@ -7455,7 +7455,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="874">
@@ -7463,7 +7463,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="875">
@@ -7471,7 +7471,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="876">
@@ -7479,7 +7479,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="877">
@@ -7487,7 +7487,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="878">
@@ -7495,7 +7495,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="879">
@@ -7503,7 +7503,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="880">
@@ -7511,7 +7511,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="881">
@@ -7519,7 +7519,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="882">
@@ -7527,7 +7527,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="883">
@@ -7535,7 +7535,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="884">
@@ -7543,7 +7543,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="885">
@@ -7551,7 +7551,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="886">
@@ -7559,7 +7559,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="887">
@@ -7567,7 +7567,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="888">
@@ -7575,7 +7575,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="889">
@@ -7583,7 +7583,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="890">
@@ -7591,7 +7591,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="891">
@@ -7599,7 +7599,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="892">
@@ -7607,7 +7607,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="893">
@@ -7615,7 +7615,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="894">
@@ -7623,7 +7623,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="895">
@@ -7631,7 +7631,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="896">
@@ -7639,7 +7639,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="897">
@@ -7647,7 +7647,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="898">
@@ -7655,7 +7655,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="899">
@@ -7663,7 +7663,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="900">
@@ -7671,7 +7671,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="901">
@@ -7679,7 +7679,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="902">
@@ -7687,7 +7687,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="903">
@@ -7695,7 +7695,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="904">
@@ -7703,7 +7703,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="905">
@@ -7711,7 +7711,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="906">
@@ -7719,7 +7719,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="907">
@@ -7727,7 +7727,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="908">
@@ -7735,7 +7735,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="909">
@@ -7743,7 +7743,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="910">
@@ -7751,7 +7751,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="911">
@@ -7759,7 +7759,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="912">
@@ -7767,7 +7767,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="913">
@@ -7775,7 +7775,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="914">
@@ -7783,7 +7783,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="915">
@@ -7791,7 +7791,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="916">
@@ -7799,7 +7799,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="917">
@@ -7807,7 +7807,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="918">
@@ -7815,7 +7815,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="919">
@@ -7823,7 +7823,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="920">
@@ -7831,7 +7831,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="921">
@@ -7839,7 +7839,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="922">
@@ -7847,7 +7847,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="923">
@@ -7855,7 +7855,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="924">
@@ -7863,7 +7863,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="925">
@@ -7871,7 +7871,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="926">
@@ -7879,7 +7879,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="927">
@@ -7887,7 +7887,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="928">
@@ -7895,7 +7895,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="929">
@@ -7903,7 +7903,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="930">
@@ -7911,7 +7911,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="931">
@@ -7919,7 +7919,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="932">
@@ -7927,7 +7927,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="933">
@@ -7935,7 +7935,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="934">
@@ -7943,7 +7943,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="935">
@@ -7951,7 +7951,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="936">
@@ -7959,7 +7959,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="937">
@@ -7967,7 +7967,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="938">
@@ -7975,7 +7975,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="939">
@@ -7983,7 +7983,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="940">
@@ -7991,7 +7991,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="941">
@@ -7999,7 +7999,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="942">
@@ -8007,7 +8007,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="943">
@@ -8015,7 +8015,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="944">
@@ -8023,7 +8023,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="945">
@@ -8031,7 +8031,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="946">
@@ -8039,7 +8039,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="947">
@@ -8047,7 +8047,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="948">
@@ -8055,7 +8055,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="949">
@@ -8063,7 +8063,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="950">
@@ -8071,7 +8071,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="951">
@@ -8079,7 +8079,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="952">
@@ -8087,7 +8087,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="953">
@@ -8095,7 +8095,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="954">
@@ -8103,7 +8103,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="955">
@@ -8111,7 +8111,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="956">
@@ -8119,7 +8119,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="957">
@@ -8127,7 +8127,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="958">
@@ -8135,7 +8135,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="959">
@@ -8143,7 +8143,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="960">
@@ -8151,7 +8151,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="961">
@@ -8159,7 +8159,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="962">
@@ -8167,7 +8167,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="963">
@@ -8175,7 +8175,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="964">
@@ -8183,7 +8183,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="965">
@@ -8191,7 +8191,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="966">
@@ -8199,7 +8199,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="967">
@@ -8207,7 +8207,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="968">
@@ -8215,7 +8215,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="969">
@@ -8223,7 +8223,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="970">
@@ -8231,7 +8231,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="971">
@@ -8239,7 +8239,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="972">
@@ -8247,7 +8247,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="973">
@@ -8255,7 +8255,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="974">
@@ -8263,7 +8263,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="975">
@@ -8271,7 +8271,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="976">
@@ -8279,7 +8279,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="977">
@@ -8287,7 +8287,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="978">
@@ -8295,7 +8295,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="979">
@@ -8303,7 +8303,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="980">
@@ -8311,7 +8311,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="981">
@@ -8319,7 +8319,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="982">
@@ -8327,7 +8327,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="983">
@@ -8335,7 +8335,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="984">
@@ -8343,7 +8343,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="985">
@@ -8351,7 +8351,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="986">
@@ -8359,7 +8359,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="987">
@@ -8367,7 +8367,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="988">
@@ -8375,7 +8375,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="989">
@@ -8383,7 +8383,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="990">
@@ -8391,7 +8391,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="991">
@@ -8399,7 +8399,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="992">
@@ -8407,7 +8407,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="993">
@@ -8415,7 +8415,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="994">
@@ -8423,7 +8423,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="995">
@@ -8431,7 +8431,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="996">
@@ -8439,7 +8439,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="997">
@@ -8447,7 +8447,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="998">
@@ -8455,7 +8455,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="999">
@@ -8463,7 +8463,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1000">
@@ -8471,7 +8471,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1001">
@@ -8479,7 +8479,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1002">
@@ -8487,7 +8487,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1003">
@@ -8495,7 +8495,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1004">
@@ -8503,7 +8503,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1005">
@@ -8511,7 +8511,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>30.88</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1006">
@@ -8519,7 +8519,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1007">
@@ -8527,7 +8527,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1008">
@@ -8535,7 +8535,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1009">
@@ -8543,7 +8543,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1010">
@@ -8551,7 +8551,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1011">
@@ -8559,7 +8559,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1012">
@@ -8567,7 +8567,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1013">
@@ -8575,7 +8575,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1014">
@@ -8583,7 +8583,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1015">
@@ -8591,7 +8591,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1016">
@@ -8599,7 +8599,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1017">
@@ -8607,7 +8607,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1018">
@@ -8615,7 +8615,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1019">
@@ -8623,7 +8623,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1020">
@@ -8631,7 +8631,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1021">
@@ -8639,7 +8639,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1022">
@@ -8647,7 +8647,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1023">
@@ -8655,7 +8655,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1024">
@@ -8663,7 +8663,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1025">
@@ -8671,7 +8671,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1026">
@@ -8679,7 +8679,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1027">
@@ -8687,7 +8687,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1028">
@@ -8695,7 +8695,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1029">
@@ -8703,7 +8703,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1030">
@@ -8711,7 +8711,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1031">
@@ -8719,7 +8719,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1032">
@@ -8727,7 +8727,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1033">
@@ -8735,7 +8735,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1034">
@@ -8743,7 +8743,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1035">
@@ -8751,7 +8751,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1036">
@@ -8759,7 +8759,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1037">
@@ -8767,7 +8767,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1038">
@@ -8775,7 +8775,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1039">
@@ -8783,7 +8783,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1040">
@@ -8791,7 +8791,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1041">
@@ -8799,7 +8799,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1042">
@@ -8807,7 +8807,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1043">
@@ -8815,7 +8815,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1044">
@@ -8823,7 +8823,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1045">
@@ -8831,7 +8831,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1046">
@@ -8839,7 +8839,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1047">
@@ -8847,7 +8847,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1048">
@@ -8855,7 +8855,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1049">
@@ -8863,7 +8863,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1050">
@@ -8871,7 +8871,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1051">
@@ -8879,7 +8879,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1052">
@@ -8887,7 +8887,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1053">
@@ -8895,7 +8895,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1054">
@@ -8903,7 +8903,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1055">
@@ -8911,7 +8911,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1056">
@@ -8919,7 +8919,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1057">
@@ -8927,7 +8927,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1058">
@@ -8935,7 +8935,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1059">
@@ -8943,7 +8943,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1060">
@@ -8951,7 +8951,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1061">
@@ -8959,7 +8959,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1062">
@@ -8967,7 +8967,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1063">
@@ -8975,7 +8975,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1064">
@@ -8983,7 +8983,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1065">
@@ -8991,7 +8991,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1066">
@@ -8999,7 +8999,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1067">
@@ -9007,7 +9007,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1068">
@@ -9015,7 +9015,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1069">
@@ -9023,7 +9023,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1070">
@@ -9031,7 +9031,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1071">
@@ -9039,7 +9039,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1072">
@@ -9047,7 +9047,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1073">
@@ -9055,7 +9055,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1074">
@@ -9063,7 +9063,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1075">
@@ -9071,7 +9071,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1076">
@@ -9079,7 +9079,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1077">
@@ -9087,7 +9087,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1078">
@@ -9095,7 +9095,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1079">
@@ -9103,7 +9103,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1080">
@@ -9111,7 +9111,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1081">
@@ -9119,7 +9119,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1082">
@@ -9127,7 +9127,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1083">
@@ -9135,7 +9135,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1084">
@@ -9143,7 +9143,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1085">
@@ -9151,7 +9151,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1086">
@@ -9159,7 +9159,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1087">
@@ -9167,7 +9167,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1088">
@@ -9175,7 +9175,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1089">
@@ -9183,7 +9183,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1090">
@@ -9191,7 +9191,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1091">
@@ -9199,7 +9199,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1092">
@@ -9207,7 +9207,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1093">
@@ -9215,7 +9215,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1094">
@@ -9223,7 +9223,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1095">
@@ -9231,7 +9231,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1096">
@@ -9239,7 +9239,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1097">
@@ -9247,7 +9247,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1098">
@@ -9255,7 +9255,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1099">
@@ -9263,7 +9263,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1100">
@@ -9271,7 +9271,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1101">
@@ -9279,7 +9279,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1102">
@@ -9287,7 +9287,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1103">
@@ -9295,7 +9295,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1104">
@@ -9303,7 +9303,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1105">
@@ -9311,7 +9311,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1106">
@@ -9319,7 +9319,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1107">
@@ -9327,7 +9327,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1108">
@@ -9335,7 +9335,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1109">
@@ -9343,7 +9343,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1110">
@@ -9351,7 +9351,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1111">
@@ -9359,7 +9359,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1112">
@@ -9367,7 +9367,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1113">
@@ -9375,7 +9375,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1114">
@@ -9383,7 +9383,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1115">
@@ -9391,7 +9391,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1116">
@@ -9399,7 +9399,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1117">
@@ -9407,7 +9407,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1118">
@@ -9415,7 +9415,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1119">
@@ -9423,7 +9423,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1120">
@@ -9431,7 +9431,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1121">
@@ -9439,7 +9439,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1122">
@@ -9447,7 +9447,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1123">
@@ -9455,7 +9455,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1124">
@@ -9463,7 +9463,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1125">
@@ -9471,7 +9471,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1126">
@@ -9479,7 +9479,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1127">
@@ -9487,7 +9487,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1128">
@@ -9495,7 +9495,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1129">
@@ -9503,7 +9503,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1130">
@@ -9511,7 +9511,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1131">
@@ -9519,7 +9519,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1132">
@@ -9527,7 +9527,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1133">
@@ -9535,7 +9535,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1134">
@@ -9543,7 +9543,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1135">
@@ -9551,7 +9551,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1136">
@@ -9559,7 +9559,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1137">
@@ -9567,7 +9567,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1138">
@@ -9575,7 +9575,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1139">
@@ -9583,7 +9583,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1140">
@@ -9591,7 +9591,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1141">
@@ -9599,7 +9599,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1142">
@@ -9607,7 +9607,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1143">
@@ -9615,7 +9615,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1144">
@@ -9623,7 +9623,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1145">
@@ -9631,7 +9631,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1146">
@@ -9639,7 +9639,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1147">
@@ -9647,7 +9647,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1148">
@@ -9655,7 +9655,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1149">
@@ -9663,7 +9663,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1150">
@@ -9671,7 +9671,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1151">
@@ -9679,7 +9679,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1152">
@@ -9687,7 +9687,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1153">
@@ -9695,7 +9695,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1154">
@@ -9703,7 +9703,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1155">
@@ -9711,7 +9711,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1156">
@@ -9719,7 +9719,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1157">
@@ -9727,7 +9727,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1158">
@@ -9735,7 +9735,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1159">
@@ -9743,7 +9743,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1160">
@@ -9751,7 +9751,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1161">
@@ -9759,7 +9759,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1162">
@@ -9767,7 +9767,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1163">
@@ -9775,7 +9775,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1164">
@@ -9783,7 +9783,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1165">
@@ -9791,7 +9791,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1166">
@@ -9799,7 +9799,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1167">
@@ -9807,7 +9807,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1168">
@@ -9815,7 +9815,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1169">
@@ -9823,7 +9823,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1170">
@@ -9831,7 +9831,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1171">
@@ -9839,7 +9839,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1172">
@@ -9847,7 +9847,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1173">
@@ -9855,7 +9855,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1174">
@@ -9863,7 +9863,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1175">
@@ -9871,7 +9871,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1176">
@@ -9879,7 +9879,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1177">
@@ -9887,7 +9887,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1178">
@@ -9895,7 +9895,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1179">
@@ -9903,7 +9903,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1180">
@@ -9911,7 +9911,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1181">
@@ -9919,7 +9919,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1182">
@@ -9927,7 +9927,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1183">
@@ -9935,7 +9935,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1184">
@@ -9943,7 +9943,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1185">
@@ -9951,7 +9951,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1186">
@@ -9959,7 +9959,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1187">
@@ -9967,7 +9967,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.57</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1188">
@@ -9975,7 +9975,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1189">
@@ -9983,7 +9983,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1190">
@@ -9991,7 +9991,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1191">
@@ -9999,7 +9999,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1192">
@@ -10007,7 +10007,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1193">
@@ -10015,7 +10015,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1194">
@@ -10023,7 +10023,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1195">
@@ -10031,7 +10031,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1196">
@@ -10039,7 +10039,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1197">
@@ -10047,7 +10047,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1198">
@@ -10055,7 +10055,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1199">
@@ -10063,7 +10063,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1200">
@@ -10071,7 +10071,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1201">
@@ -10079,7 +10079,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1202">
@@ -10087,7 +10087,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1203">
@@ -10095,7 +10095,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1204">
@@ -10103,7 +10103,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1205">
@@ -10111,7 +10111,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1206">
@@ -10119,7 +10119,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1207">
@@ -10127,7 +10127,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1208">
@@ -10135,7 +10135,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1209">
@@ -10143,7 +10143,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1210">
@@ -10151,7 +10151,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1211">
@@ -10159,7 +10159,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1212">
@@ -10167,7 +10167,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1213">
@@ -10175,7 +10175,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1214">
@@ -10183,7 +10183,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1215">
@@ -10191,7 +10191,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1216">
@@ -10199,7 +10199,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1217">
@@ -10207,7 +10207,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1218">
@@ -10215,7 +10215,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1219">
@@ -10223,7 +10223,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1220">
@@ -10231,7 +10231,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1221">
@@ -10239,7 +10239,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1222">
@@ -10247,7 +10247,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1223">
@@ -10255,7 +10255,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1224">
@@ -10263,7 +10263,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1225">
@@ -10271,7 +10271,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1226">
@@ -10279,7 +10279,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1227">
@@ -10287,7 +10287,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1228">
@@ -10295,7 +10295,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1229">
@@ -10303,7 +10303,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1230">
@@ -10311,7 +10311,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1231">
@@ -10319,7 +10319,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1232">
@@ -10327,7 +10327,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1233">
@@ -10335,7 +10335,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1234">
@@ -10343,7 +10343,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1235">
@@ -10351,7 +10351,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1236">
@@ -10359,7 +10359,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1237">
@@ -10367,7 +10367,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1238">
@@ -10375,7 +10375,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1239">
@@ -10383,7 +10383,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1240">
@@ -10391,7 +10391,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1241">
@@ -10399,7 +10399,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1242">
@@ -10407,7 +10407,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1243">
@@ -10415,7 +10415,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1244">
@@ -10423,7 +10423,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1245">
@@ -10431,7 +10431,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1246">
@@ -10439,7 +10439,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1247">
@@ -10447,7 +10447,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1248">
@@ -10455,7 +10455,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1249">
@@ -10463,7 +10463,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1250">
@@ -10471,7 +10471,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1251">
@@ -10479,7 +10479,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1252">
@@ -10487,7 +10487,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1253">
@@ -10495,7 +10495,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1254">
@@ -10503,7 +10503,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1255">
@@ -10511,7 +10511,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1256">
@@ -10519,7 +10519,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1257">
@@ -10527,7 +10527,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1258">
@@ -10535,7 +10535,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1259">
@@ -10543,7 +10543,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1260">
@@ -10551,7 +10551,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1261">
@@ -10559,7 +10559,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1262">
@@ -10567,7 +10567,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1263">
@@ -10575,7 +10575,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1264">
@@ -10583,7 +10583,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1265">
@@ -10591,7 +10591,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1266">
@@ -10599,7 +10599,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1267">
@@ -10607,7 +10607,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1268">
@@ -10615,7 +10615,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1269">
@@ -10623,7 +10623,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1270">
@@ -10631,7 +10631,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1271">
@@ -10639,7 +10639,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1272">
@@ -10647,7 +10647,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1273">
@@ -10655,7 +10655,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1274">
@@ -10663,7 +10663,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1275">
@@ -10671,7 +10671,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1276">
@@ -10679,7 +10679,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1277">
@@ -10687,7 +10687,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1278">
@@ -10695,7 +10695,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1279">
@@ -10703,7 +10703,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1280">
@@ -10711,7 +10711,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1281">
@@ -10719,7 +10719,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1282">
@@ -10727,7 +10727,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1283">
@@ -10735,7 +10735,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1284">
@@ -10743,7 +10743,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1285">
@@ -10751,7 +10751,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1286">
@@ -10759,7 +10759,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1287">
@@ -10767,7 +10767,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1288">
@@ -10775,7 +10775,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1289">
@@ -10783,7 +10783,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1290">
@@ -10791,7 +10791,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1291">
@@ -10799,7 +10799,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1292">
@@ -10807,7 +10807,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1293">
@@ -10815,7 +10815,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1294">
@@ -10823,7 +10823,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1295">
@@ -10831,7 +10831,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1296">
@@ -10839,7 +10839,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1297">
@@ -10847,7 +10847,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1298">
@@ -10855,7 +10855,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1299">
@@ -10863,7 +10863,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1300">
@@ -10871,7 +10871,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1301">
@@ -10879,7 +10879,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1302">
@@ -10887,7 +10887,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1303">
@@ -10895,7 +10895,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1304">
@@ -10903,7 +10903,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1305">
@@ -10911,7 +10911,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1306">
@@ -10919,7 +10919,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1307">
@@ -10927,7 +10927,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1308">
@@ -10935,7 +10935,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1309">
@@ -10943,7 +10943,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1310">
@@ -10951,7 +10951,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1311">
@@ -10959,7 +10959,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1312">
@@ -10967,7 +10967,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1313">
@@ -10975,7 +10975,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1314">
@@ -10983,7 +10983,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1315">
@@ -10991,7 +10991,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1316">
@@ -10999,7 +10999,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1317">
@@ -11007,7 +11007,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1318">
@@ -11015,7 +11015,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1319">
@@ -11023,7 +11023,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1320">
@@ -11031,7 +11031,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1321">
@@ -11039,7 +11039,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1322">
@@ -11047,7 +11047,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1323">
@@ -11055,7 +11055,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1324">
@@ -11063,7 +11063,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1325">
@@ -11071,7 +11071,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1326">
@@ -11079,7 +11079,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1327">
@@ -11087,7 +11087,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1328">
@@ -11095,7 +11095,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1329">
@@ -11103,7 +11103,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1330">
@@ -11111,7 +11111,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1331">
@@ -11119,7 +11119,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1332">
@@ -11127,7 +11127,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1333">
@@ -11135,7 +11135,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1334">
@@ -11143,7 +11143,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1335">
@@ -11151,7 +11151,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1336">
@@ -11159,7 +11159,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1337">
@@ -11167,7 +11167,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1338">
@@ -11175,7 +11175,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1339">
@@ -11183,7 +11183,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1340">
@@ -11191,7 +11191,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1341">
@@ -11199,7 +11199,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1342">
@@ -11207,7 +11207,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1343">
@@ -11215,7 +11215,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1344">
@@ -11223,7 +11223,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1345">
@@ -11231,7 +11231,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1346">
@@ -11239,7 +11239,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1347">
@@ -11247,7 +11247,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1348">
@@ -11255,7 +11255,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1349">
@@ -11263,7 +11263,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1350">
@@ -11271,7 +11271,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1351">
@@ -11279,7 +11279,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1352">
@@ -11287,7 +11287,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1353">
@@ -11295,7 +11295,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1354">
@@ -11303,7 +11303,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1355">
@@ -11311,7 +11311,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1356">
@@ -11319,7 +11319,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1357">
@@ -11327,7 +11327,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1358">
@@ -11335,7 +11335,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1359">
@@ -11343,7 +11343,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1360">
@@ -11351,7 +11351,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1361">
@@ -11359,7 +11359,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1362">
@@ -11367,7 +11367,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1363">
@@ -11375,7 +11375,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1364">
@@ -11383,7 +11383,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1365">
@@ -11391,7 +11391,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1366">
@@ -11399,7 +11399,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1367">
@@ -11407,7 +11407,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1368">
@@ -11415,7 +11415,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1369">
@@ -11423,7 +11423,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1370">
@@ -11431,7 +11431,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1371">
@@ -11439,7 +11439,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1372">
@@ -11447,7 +11447,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1373">
@@ -11455,7 +11455,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1374">
@@ -11463,7 +11463,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1375">
@@ -11471,7 +11471,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1376">
@@ -11479,7 +11479,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1377">
@@ -11487,7 +11487,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1378">
@@ -11495,7 +11495,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1379">
@@ -11503,7 +11503,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1380">
@@ -11511,7 +11511,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1381">
@@ -11519,7 +11519,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1382">
@@ -11527,7 +11527,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1383">
@@ -11535,7 +11535,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1384">
@@ -11543,7 +11543,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1385">
@@ -11551,7 +11551,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1386">
@@ -11559,7 +11559,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1387">
@@ -11567,7 +11567,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1388">
@@ -11575,7 +11575,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1389">
@@ -11583,7 +11583,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1390">
@@ -11591,7 +11591,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1391">
@@ -11599,7 +11599,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1392">
@@ -11607,7 +11607,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1393">
@@ -11615,7 +11615,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1394">
@@ -11623,7 +11623,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1395">
@@ -11631,7 +11631,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1396">
@@ -11639,7 +11639,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1397">
@@ -11647,7 +11647,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1398">
@@ -11655,7 +11655,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1399">
@@ -11663,7 +11663,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1400">
@@ -11671,7 +11671,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1401">
@@ -11679,7 +11679,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1402">
@@ -11687,7 +11687,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1403">
@@ -11695,7 +11695,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1404">
@@ -11703,7 +11703,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1405">
@@ -11711,7 +11711,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1406">
@@ -11719,7 +11719,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1407">
@@ -11727,7 +11727,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1408">
@@ -11735,7 +11735,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1409">
@@ -11743,7 +11743,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1410">
@@ -11751,7 +11751,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1411">
@@ -11759,7 +11759,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1412">
@@ -11767,7 +11767,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1413">
@@ -11775,7 +11775,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1414">
@@ -11783,7 +11783,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1415">
@@ -11791,7 +11791,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1416">
@@ -11799,7 +11799,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1417">
@@ -11807,7 +11807,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1418">
@@ -11815,7 +11815,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1419">
@@ -11823,7 +11823,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1420">
@@ -11831,7 +11831,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1421">
@@ -11839,7 +11839,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1422">
@@ -11847,7 +11847,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1423">
@@ -11855,7 +11855,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1424">
@@ -11863,7 +11863,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1425">
@@ -11871,7 +11871,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1426">
@@ -11879,7 +11879,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1427">
@@ -11887,7 +11887,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1428">
@@ -11895,7 +11895,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1429">
@@ -11903,7 +11903,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1430">
@@ -11911,7 +11911,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1431">
@@ -11919,7 +11919,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1432">
@@ -11927,7 +11927,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1433">
@@ -11935,7 +11935,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1434">
@@ -11943,7 +11943,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1435">
@@ -11951,7 +11951,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1436">
@@ -11959,7 +11959,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1437">
@@ -11967,7 +11967,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1438">
@@ -11975,7 +11975,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1439">
@@ -11983,7 +11983,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1440">
@@ -11991,7 +11991,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1441">
@@ -11999,7 +11999,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1442">
@@ -12007,7 +12007,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1443">
@@ -12015,7 +12015,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1444">
@@ -12023,7 +12023,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1445">
@@ -12031,7 +12031,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1446">
@@ -12039,7 +12039,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1447">
@@ -12047,7 +12047,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1448">
@@ -12055,7 +12055,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1449">
@@ -12063,7 +12063,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1450">
@@ -12071,7 +12071,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1451">
@@ -12079,7 +12079,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1452">
@@ -12087,7 +12087,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1453">
@@ -12095,7 +12095,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1454">
@@ -12103,7 +12103,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1455">
@@ -12111,7 +12111,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1456">
@@ -12119,7 +12119,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1457">
@@ -12127,7 +12127,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1458">
@@ -12135,7 +12135,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1459">
@@ -12143,7 +12143,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1460">
@@ -12151,7 +12151,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1461">
@@ -12159,7 +12159,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="1462">
@@ -12167,7 +12167,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>28.77</v>
+        <v>31.49</v>
       </c>
     </row>
   </sheetData>
